--- a/reports/For The Week Ending (Actual)_Revenue.xlsx
+++ b/reports/For The Week Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -37,6 +37,12 @@
     <t>D1500</t>
   </si>
   <si>
+    <t>Ski School</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
     <t>Rentals</t>
   </si>
   <si>
@@ -71,6 +77,12 @@
   </si>
   <si>
     <t>D5201</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
   </si>
   <si>
     <t>Purgy's</t>
@@ -445,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>3808.8000</v>
+        <v>7471.2500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -494,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>2936.0500</v>
+        <v>635.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -506,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>40.0000</v>
+        <v>2991.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -518,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>3020.9100</v>
+        <v>315.5000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -530,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>1432.8600</v>
+        <v>2680.1700</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -542,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>157.4400</v>
+        <v>1350.6500</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -554,7 +566,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>2012.6900</v>
+        <v>383.5000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -566,7 +578,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>1462.0900</v>
+        <v>1853.2900</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -578,7 +590,31 @@
         <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>767.1000</v>
+        <v>20.0000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4185.3700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1266.8500</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Revenue.xlsx
+++ b/reports/For The Week Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,70 +31,67 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -457,16 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -494,127 +490,145 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>7471.2500</v>
+        <v>-30.0000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>635.0000</v>
+        <v>9.3500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>2991.0000</v>
+        <v>3376.0300</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>315.5000</v>
+        <v>72116.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>2680.1700</v>
+        <v>8466.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
-        <v>1350.6500</v>
+        <v>30457.1600</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>383.5000</v>
+        <v>10035.4500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>1853.2900</v>
+        <v>15412.0800</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>20.0000</v>
+        <v>25628.2100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
-        <v>4185.3700</v>
+        <v>1252.2300</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2">
-        <v>1266.8500</v>
+        <v>1468.2600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Revenue.xlsx
+++ b/reports/For The Week Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,67 +31,70 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>D1500</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
-  </si>
-  <si>
-    <t>Fremont Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5113                    </t>
-  </si>
-  <si>
-    <t>General Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8010                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
   </si>
 </sst>
 </file>
@@ -454,15 +457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -490,145 +494,127 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>-30.0000</v>
+        <v>7471.2500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>9.3500</v>
+        <v>635.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>3376.0300</v>
+        <v>2991.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>72116.0000</v>
+        <v>315.5000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>8466.0000</v>
+        <v>2680.1700</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>30457.1600</v>
+        <v>1350.6500</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>10035.4500</v>
+        <v>383.5000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>15412.0800</v>
+        <v>1853.2900</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>25628.2100</v>
+        <v>20.0000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>1252.2300</v>
+        <v>4073.2300</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>1468.2600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.0100</v>
+        <v>1266.8500</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Revenue.xlsx
+++ b/reports/For The Week Ending (Actual)_Revenue.xlsx
@@ -465,8 +465,7 @@
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -494,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>7471.2500</v>
+        <v>10697.1000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -506,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>635.0000</v>
+        <v>1033.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -518,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>2991.0000</v>
+        <v>5472.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -530,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>315.5000</v>
+        <v>623.5000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -542,7 +541,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>2680.1700</v>
+        <v>4356.5900</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -554,7 +553,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>1350.6500</v>
+        <v>2120.6400</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -566,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>383.5000</v>
+        <v>914.1500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -578,7 +577,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>1853.2900</v>
+        <v>2485.8500</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -590,7 +589,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>20.0000</v>
+        <v>40.0000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -602,7 +601,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>4073.2300</v>
+        <v>6045.0600</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -614,7 +613,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>1266.8500</v>
+        <v>1888.5000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Revenue.xlsx
+++ b/reports/For The Week Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,70 +31,70 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -457,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -493,127 +493,159 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>10697.1000</v>
+        <v>-75.0000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>1033.0000</v>
+        <v>9.3500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>5472.0000</v>
+        <v>5393.8200</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>623.5000</v>
+        <v>110775.8500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>4356.5900</v>
+        <v>21.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>2120.6400</v>
+        <v>12878.0000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>914.1500</v>
+        <v>44532.2100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>2485.8500</v>
+        <v>17277.5900</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>40.0000</v>
+        <v>23575.0900</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>6045.0600</v>
+        <v>35920.1200</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1830.7800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2184.1300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2">
-        <v>1888.5000</v>
+      <c r="D14" s="2">
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Revenue.xlsx
+++ b/reports/For The Week Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,70 +31,76 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -457,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -493,127 +499,171 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>16106.1000</v>
+        <v>-165.0000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>5026.0000</v>
+        <v>28.0500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>11529.0000</v>
+        <v>151258.9300</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>954.0000</v>
+        <v>21.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>6412.6200</v>
+        <v>7076.7000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>2977.5100</v>
+        <v>21816.0000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>1653.5100</v>
+        <v>61712.1800</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>3748.5100</v>
+        <v>25335.8700</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>120.0000</v>
+        <v>7.4800</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>9479.4600</v>
+        <v>30872.2900</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50740.0400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2667.7400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2">
-        <v>2525.2400</v>
+      <c r="D14" s="2">
+        <v>2787.8300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Revenue.xlsx
+++ b/reports/For The Week Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,76 +31,85 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T257                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T105</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4034                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
-  </si>
-  <si>
-    <t>Fremont Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5113                    </t>
-  </si>
-  <si>
-    <t>General Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8010                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4053                    </t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4054                    </t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Waffle Cabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5205                    </t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
   </si>
 </sst>
 </file>
@@ -469,9 +478,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -499,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>-165.0000</v>
+        <v>63850.8500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -513,157 +523,151 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>28.0500</v>
+        <v>5104.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>151258.9300</v>
+        <v>18374.5000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>21.0000</v>
+        <v>800.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>7076.7000</v>
+        <v>32683.5000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>21816.0000</v>
+        <v>5388.1700</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>61712.1800</v>
+        <v>21706.8200</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>25335.8700</v>
+        <v>7041.0000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>7.4800</v>
+        <v>4766.8200</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>30872.2900</v>
+        <v>13383.2200</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
-        <v>50740.0400</v>
+        <v>999.6500</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>2667.7400</v>
+        <v>280.0000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>2787.8300</v>
+        <v>29702.3200</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
-        <v>0.0100</v>
+        <v>8090.3100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Revenue.xlsx
+++ b/reports/For The Week Ending (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,85 +31,76 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4053                    </t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4054                    </t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -478,10 +469,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -509,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>63850.8500</v>
+        <v>-249.9700</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -523,151 +513,157 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>5104.0000</v>
+        <v>28.0500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>18374.5000</v>
+        <v>32206.8400</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>800.0000</v>
+        <v>454876.5300</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>32683.5000</v>
+        <v>21.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>5388.1700</v>
+        <v>64747.7500</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>21706.8200</v>
+        <v>162802.8800</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>7041.0000</v>
+        <v>60186.6500</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>4766.8200</v>
+        <v>22.5400</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>13383.2200</v>
+        <v>64002.3000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
-        <v>999.6500</v>
+        <v>129317.2200</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
-        <v>280.0000</v>
+        <v>6242.2600</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>29702.3200</v>
+        <v>7880.0400</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
-        <v>8090.3100</v>
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>
